--- a/public/admin/cfis_formate.xlsx
+++ b/public/admin/cfis_formate.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="128">
   <si>
     <t>Client_Name</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>hr</t>
+  </si>
+  <si>
+    <t>15-5-2025</t>
   </si>
   <si>
     <t>banglore</t>
@@ -415,13 +418,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,6 +445,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -907,146 +919,155 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1584,38 +1605,40 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="8" width="29" customWidth="1"/>
+    <col min="1" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="29" style="4" customWidth="1"/>
+    <col min="7" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1626,7 +1649,7 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
@@ -1635,14 +1658,14 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4">
-        <v>45877</v>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1675,19 +1698,19 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -1695,13 +1718,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
         <v>77</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2">
         <v>31</v>
@@ -1712,13 +1735,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2">
         <v>76</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
@@ -1729,13 +1752,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
         <v>75</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5" s="2">
         <v>3</v>
@@ -1752,7 +1775,7 @@
         <v>74</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J6" s="2">
         <v>2</v>
@@ -1763,13 +1786,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>73</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J7" s="2">
         <v>35</v>
@@ -1780,13 +1803,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>72</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J8" s="2">
         <v>5</v>
@@ -1797,13 +1820,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>71</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J9" s="2">
         <v>30</v>
@@ -1814,13 +1837,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>70</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J10" s="2">
         <v>34</v>
@@ -1831,13 +1854,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2">
         <v>69</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J11" s="2">
         <v>29</v>
@@ -1848,13 +1871,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2">
         <v>68</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J12" s="2">
         <v>28</v>
@@ -1865,13 +1888,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2">
         <v>67</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J13" s="2">
         <v>37</v>
@@ -1882,13 +1905,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2">
         <v>66</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J14" s="2">
         <v>25</v>
@@ -1899,13 +1922,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2">
         <v>65</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J15" s="2">
         <v>4</v>
@@ -1916,13 +1939,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2">
         <v>64</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J16" s="2">
         <v>6</v>
@@ -1933,13 +1956,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2">
         <v>63</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J17" s="2">
         <v>7</v>
@@ -1950,13 +1973,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" s="2">
         <v>62</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J18" s="2">
         <v>8</v>
@@ -1967,13 +1990,13 @@
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="2">
         <v>61</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J19" s="2">
         <v>33</v>
@@ -1984,13 +2007,13 @@
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" s="2">
         <v>60</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J20" s="2">
         <v>9</v>
@@ -2001,13 +2024,13 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" s="2">
         <v>59</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J21" s="2">
         <v>10</v>
@@ -2018,13 +2041,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22" s="2">
         <v>58</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J22" s="2">
         <v>27</v>
@@ -2035,13 +2058,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D23" s="2">
         <v>57</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J23" s="2">
         <v>11</v>
@@ -2052,13 +2075,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24" s="2">
         <v>56</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J24" s="2">
         <v>12</v>
@@ -2069,13 +2092,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D25" s="2">
         <v>55</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J25" s="2">
         <v>13</v>
@@ -2086,13 +2109,13 @@
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D26" s="2">
         <v>54</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J26" s="2">
         <v>14</v>
@@ -2103,13 +2126,13 @@
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27" s="2">
         <v>53</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J27" s="2">
         <v>15</v>
@@ -2120,13 +2143,13 @@
         <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D28" s="2">
         <v>52</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J28" s="2">
         <v>16</v>
@@ -2137,13 +2160,13 @@
         <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D29" s="2">
         <v>51</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J29" s="2">
         <v>17</v>
@@ -2154,13 +2177,13 @@
         <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D30" s="2">
         <v>50</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J30" s="2">
         <v>26</v>
@@ -2171,13 +2194,13 @@
         <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D31" s="2">
         <v>49</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J31" s="2">
         <v>18</v>
@@ -2188,13 +2211,13 @@
         <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D32" s="2">
         <v>48</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J32" s="2">
         <v>19</v>
@@ -2205,13 +2228,13 @@
         <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D33" s="2">
         <v>47</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J33" s="2">
         <v>20</v>
@@ -2222,13 +2245,13 @@
         <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D34" s="2">
         <v>46</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J34" s="2">
         <v>21</v>
@@ -2239,13 +2262,13 @@
         <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D35" s="2">
         <v>45</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J35" s="2">
         <v>36</v>
@@ -2256,13 +2279,13 @@
         <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D36" s="2">
         <v>43</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J36" s="2">
         <v>22</v>
@@ -2273,13 +2296,13 @@
         <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D37" s="2">
         <v>42</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J37" s="2">
         <v>23</v>
@@ -2290,13 +2313,13 @@
         <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D38" s="2">
         <v>40</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J38" s="2">
         <v>32</v>
@@ -2307,13 +2330,13 @@
         <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D39" s="2">
         <v>39</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J39" s="2">
         <v>24</v>
@@ -2324,7 +2347,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D40" s="2">
         <v>38</v>
@@ -2335,7 +2358,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D41" s="2">
         <v>37</v>
@@ -2346,7 +2369,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D42" s="2">
         <v>36</v>
@@ -2357,7 +2380,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D43" s="2">
         <v>35</v>
@@ -2368,7 +2391,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D44" s="2">
         <v>34</v>
@@ -2379,7 +2402,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D45" s="2">
         <v>33</v>
@@ -2390,7 +2413,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D46" s="2">
         <v>32</v>
@@ -2401,7 +2424,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D47" s="2">
         <v>31</v>
@@ -2412,7 +2435,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D48" s="2">
         <v>30</v>
@@ -2423,7 +2446,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D49" s="2">
         <v>29</v>
@@ -2434,7 +2457,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D50" s="2">
         <v>28</v>
@@ -2445,7 +2468,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D51" s="2">
         <v>27</v>
@@ -2456,7 +2479,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D52" s="2">
         <v>26</v>
@@ -2467,7 +2490,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D53" s="2">
         <v>25</v>
@@ -2478,7 +2501,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D54" s="2">
         <v>24</v>
@@ -2489,7 +2512,7 @@
         <v>53</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D55" s="2">
         <v>23</v>
@@ -2500,7 +2523,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D56" s="2">
         <v>22</v>
@@ -2511,7 +2534,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D57" s="2">
         <v>20</v>
@@ -2522,7 +2545,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D58" s="2">
         <v>19</v>
@@ -2533,7 +2556,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D59" s="2">
         <v>18</v>
@@ -2544,7 +2567,7 @@
         <v>58</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D60" s="2">
         <v>17</v>
@@ -2555,7 +2578,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D61" s="2">
         <v>16</v>
@@ -2566,7 +2589,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D62" s="2">
         <v>15</v>
@@ -2577,7 +2600,7 @@
         <v>61</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D63" s="2">
         <v>14</v>
@@ -2588,7 +2611,7 @@
         <v>62</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D64" s="2">
         <v>13</v>
@@ -2599,7 +2622,7 @@
         <v>63</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D65" s="2">
         <v>12</v>
@@ -2610,7 +2633,7 @@
         <v>64</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D66" s="2">
         <v>11</v>
@@ -2621,7 +2644,7 @@
         <v>65</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D67" s="2">
         <v>10</v>
@@ -2632,7 +2655,7 @@
         <v>66</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D68" s="2">
         <v>9</v>
@@ -2643,7 +2666,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D69" s="2">
         <v>8</v>
@@ -2654,7 +2677,7 @@
         <v>68</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D70" s="2">
         <v>7</v>
@@ -2665,7 +2688,7 @@
         <v>69</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D71" s="2">
         <v>6</v>
@@ -2676,7 +2699,7 @@
         <v>70</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D72" s="2">
         <v>5</v>
@@ -2687,7 +2710,7 @@
         <v>71</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D73" s="2">
         <v>4</v>
@@ -2698,7 +2721,7 @@
         <v>72</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D74" s="2">
         <v>3</v>
@@ -2709,7 +2732,7 @@
         <v>73</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D75" s="2">
         <v>2</v>
@@ -2720,7 +2743,7 @@
         <v>74</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D76" s="2">
         <v>1</v>

--- a/public/admin/cfis_formate.xlsx
+++ b/public/admin/cfis_formate.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>Client_Name</t>
   </si>
@@ -54,364 +54,236 @@
     <t>State</t>
   </si>
   <si>
+    <t>CLIENT NAME</t>
+  </si>
+  <si>
+    <t>raju</t>
+  </si>
+  <si>
+    <t>raju@gmail.com</t>
+  </si>
+  <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>15-5-2025</t>
+  </si>
+  <si>
+    <t>banglore</t>
+  </si>
+  <si>
+    <t>CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SL No</t>
+  </si>
+  <si>
+    <t>Blink Commerce Private Limited</t>
+  </si>
+  <si>
+    <t>STATES</t>
+  </si>
+  <si>
+    <t>STATES ID</t>
+  </si>
+  <si>
+    <t>BLUE DART EXPRESS LTD</t>
+  </si>
+  <si>
+    <t>ANDAMAN &amp; NICOBAR</t>
+  </si>
+  <si>
+    <t>Brainbees Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>ANDHRA PRADESH</t>
+  </si>
+  <si>
+    <t>BusybeesLogistics Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>ARUNACHAL PRADESH</t>
+  </si>
+  <si>
+    <t>DELHIVERY PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>ASSAM</t>
+  </si>
+  <si>
+    <r>
+      <t>Digital Age Retail Private Limited</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Firmroots Private Limited</t>
+  </si>
+  <si>
+    <t>BIHAR</t>
+  </si>
+  <si>
+    <t>Foxconn Hon Hai Technology India Mega Development Private Limited</t>
+  </si>
+  <si>
+    <t>IFB Automotive Private Ltd</t>
+  </si>
+  <si>
+    <t>CHATTISGARH</t>
+  </si>
+  <si>
+    <r>
+      <t>Mehler Engineered Products</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>India</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Pvt. Ltd.</t>
+    </r>
+  </si>
+  <si>
+    <t>DADRA &amp; NAGAR</t>
+  </si>
+  <si>
+    <t>Patwari Pharma Private Limited</t>
+  </si>
+  <si>
+    <t>DAMAN &amp; DIU</t>
+  </si>
+  <si>
+    <t>PROCONNECT SUPPLY CHAIN SOLUTIONS PVT LTD</t>
+  </si>
+  <si>
+    <t>DELHI</t>
+  </si>
+  <si>
+    <t>Rapidue Technologies Pvt Ltd</t>
+  </si>
+  <si>
+    <t>GOA</t>
+  </si>
+  <si>
+    <t>TTP Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>GUJRAT</t>
+  </si>
+  <si>
+    <t>Urbanlogix Global India Private Limited</t>
+  </si>
+  <si>
+    <t>HARYANA</t>
+  </si>
+  <si>
     <t>Zomato Hyperpure Private Limited</t>
   </si>
   <si>
-    <t>raju</t>
-  </si>
-  <si>
-    <t>raju@gmail.com</t>
-  </si>
-  <si>
-    <t>hr</t>
-  </si>
-  <si>
-    <t>15-5-2025</t>
-  </si>
-  <si>
-    <t>banglore</t>
-  </si>
-  <si>
-    <t>CHANDIGARH</t>
-  </si>
-  <si>
-    <t>SL No</t>
-  </si>
-  <si>
-    <t>CLIENT NAME</t>
-  </si>
-  <si>
-    <t>CLIENT ID</t>
-  </si>
-  <si>
-    <t>STATES</t>
-  </si>
-  <si>
-    <t>STATES ID</t>
-  </si>
-  <si>
-    <t>Urbanlogix Global India Private Limited</t>
-  </si>
-  <si>
-    <t>ANDAMAN &amp; NICOBAR</t>
-  </si>
-  <si>
-    <t>Foxconn Hon Hai Technology India Mega Development Private Limited</t>
-  </si>
-  <si>
-    <t>ANDHRA PRADESH</t>
-  </si>
-  <si>
-    <t>TTP Technologies Private Limited</t>
-  </si>
-  <si>
-    <t>ARUNACHAL PRADESH</t>
-  </si>
-  <si>
-    <t>ASSAM</t>
-  </si>
-  <si>
-    <t>Bigfoot Retail Solutions Private Limited</t>
-  </si>
-  <si>
-    <t>PCI Pest Control Private Limited</t>
-  </si>
-  <si>
-    <t>BIHAR</t>
-  </si>
-  <si>
-    <t>IFB Automotive Private Ltd</t>
-  </si>
-  <si>
-    <t>Blink Commerce Private Limited</t>
-  </si>
-  <si>
-    <t>CHATTISGARH</t>
-  </si>
-  <si>
-    <t>KiranaKart Technologies Private Limited</t>
-  </si>
-  <si>
-    <t>DADRA &amp; NAGAR</t>
-  </si>
-  <si>
-    <t>SSAGC Marketing Services Private Limited</t>
-  </si>
-  <si>
-    <t>DAMAN &amp; DIU</t>
-  </si>
-  <si>
-    <t>Shopclients Consultancy Services Pvt Ltd</t>
-  </si>
-  <si>
-    <t>DELHI</t>
-  </si>
-  <si>
-    <t>WayCool Foods and Products Pvt. Ltd.</t>
-  </si>
-  <si>
-    <t>GOA</t>
-  </si>
-  <si>
-    <t>Deliveryontime Logistics Private Ltd</t>
-  </si>
-  <si>
-    <t>GUJRAT</t>
-  </si>
-  <si>
-    <t>WWL Centre For Logistics Excellence Private Limited</t>
-  </si>
-  <si>
-    <t>HARYANA</t>
-  </si>
-  <si>
-    <t>Firmroots Private Limited</t>
-  </si>
-  <si>
     <t>HIMACHAL PRADESH</t>
   </si>
   <si>
-    <t>Patwari Pharma Private Limited</t>
-  </si>
-  <si>
     <t>JAMMU &amp; KASHMIR</t>
   </si>
   <si>
-    <t>Smart Express Private Limited</t>
-  </si>
-  <si>
     <t>JHARKHAND</t>
   </si>
   <si>
-    <t>Mehler Engineered Products India Pvt. Ltd.</t>
-  </si>
-  <si>
     <t>KARNATAKA</t>
   </si>
   <si>
-    <t>Mechanical Unified Private Limited</t>
-  </si>
-  <si>
     <t>KERALA</t>
   </si>
   <si>
-    <t>Gobuyeazzify India Private Limited</t>
-  </si>
-  <si>
     <t>LAKSHDWEEP</t>
   </si>
   <si>
-    <t>Fashnear Technologies Private Limited</t>
-  </si>
-  <si>
     <t>MADHYA PRADESH</t>
   </si>
   <si>
-    <t>Rapidue Technologies Pvt Ltd</t>
-  </si>
-  <si>
     <t>MAHARASHTRA</t>
   </si>
   <si>
-    <t>Loadshare Networks Pvt Ltd</t>
-  </si>
-  <si>
     <t>MANIPUR</t>
   </si>
   <si>
-    <t>Threpsi Solutions Private Limited</t>
-  </si>
-  <si>
     <t>MEGHALAYA</t>
   </si>
   <si>
-    <t>Supr Infotech Solutions Private Limited</t>
-  </si>
-  <si>
     <t>MIZORAM</t>
   </si>
   <si>
-    <t>Farmtheory Private Limited</t>
-  </si>
-  <si>
     <t>NAGALAND</t>
   </si>
   <si>
-    <t>Blue Dart Aviation  Ltd.</t>
-  </si>
-  <si>
     <t>ORISSA</t>
   </si>
   <si>
-    <t>NEWLOOP LOGISTICS PRIVATE LIMITED</t>
-  </si>
-  <si>
     <t>PONDICHERY</t>
   </si>
   <si>
-    <t>LYNKS LOGISTICS LIMITED</t>
-  </si>
-  <si>
     <t>PUNJAB</t>
   </si>
   <si>
-    <t>GRANARY WHOLESALE PRIVATE LIMITED</t>
-  </si>
-  <si>
     <t>RAJASTHAN</t>
   </si>
   <si>
-    <t>INDUSBUY TECHSERVE PVT LTD</t>
-  </si>
-  <si>
     <t>SIKKIM</t>
   </si>
   <si>
-    <t>BLUE DART EXPRESS LTD</t>
-  </si>
-  <si>
     <t>TAMIL NADU</t>
   </si>
   <si>
-    <t>HICARE SERVICES PVT LTD</t>
-  </si>
-  <si>
     <t>TELANGANA</t>
   </si>
   <si>
-    <t>QWY Technologies Pvt Ltd</t>
-  </si>
-  <si>
     <t>TRIPURA</t>
   </si>
   <si>
-    <t>Medlife Wellness Retail Pvt Ltd</t>
-  </si>
-  <si>
     <t>UTTAR PRADESH</t>
   </si>
   <si>
-    <t>Slingpe software private limited</t>
-  </si>
-  <si>
     <t>UTTARAKHAND</t>
   </si>
   <si>
-    <t>MAK STAFFING</t>
-  </si>
-  <si>
     <t>WEST BENGAL</t>
-  </si>
-  <si>
-    <t>63 Ideas Info Labs Private Limited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pristine facility &amp; management service pvt ltd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Randstand india pvt ltd </t>
-  </si>
-  <si>
-    <t>Himatsingka</t>
-  </si>
-  <si>
-    <t>Mahindra Logistics limited</t>
-  </si>
-  <si>
-    <t>Rupeek Fintech Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Grantail Wholesale Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Wickedride Adventure Services Pvt Ltd</t>
-  </si>
-  <si>
-    <t>DTDC express  Limited</t>
-  </si>
-  <si>
-    <t>DELHIVERY PRIVATE LIMITED</t>
-  </si>
-  <si>
-    <t>VOGO AUTOMOTIVE PRIVATE LIMITED</t>
-  </si>
-  <si>
-    <t>Ecom Express Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Ansio Marketplace Pvt Ltd</t>
-  </si>
-  <si>
-    <t>RESILIENT INNOVATIONS PRIVATE LIMITED(Bharat Pe)</t>
-  </si>
-  <si>
-    <t>Asset Trackr Pvt. Ltd.,</t>
-  </si>
-  <si>
-    <t>BRILLIANT PRINTERS PVT LTD</t>
-  </si>
-  <si>
-    <t>ERELEGO DIGI MEDIA PVT LTD</t>
-  </si>
-  <si>
-    <t>JMS LOGISTICS &amp; EXPRESS PVT LTD</t>
-  </si>
-  <si>
-    <t>EQUITAS TECHNOLOGIES PVT LTD</t>
-  </si>
-  <si>
-    <t>KARVY DATA MANAGEMENT SERVICES LTD</t>
-  </si>
-  <si>
-    <t>RIGHT BRAIN TECHNOLOGY PVT LTD</t>
-  </si>
-  <si>
-    <t>CURE FOODS PVT LTD</t>
-  </si>
-  <si>
-    <t>INNOVATIVE RETAIL CONCEPTS PVT LTD</t>
-  </si>
-  <si>
-    <t>SUPER MARKET GROCERY SUPPLIES PVT LTD</t>
-  </si>
-  <si>
-    <t>PROCONNECT SUPPLY CHAIN SOLUTIONS PVT LTD</t>
-  </si>
-  <si>
-    <t>DUNZO DIGITAL PVT LTD</t>
-  </si>
-  <si>
-    <t>KEF INFRASTRUCTURE INDIA PVT LTD</t>
-  </si>
-  <si>
-    <t>BISLERI INTERNATIONAL PVT LTD</t>
-  </si>
-  <si>
-    <t>MSUPPLY ECOMMERCE INDIA PVT LTD</t>
-  </si>
-  <si>
-    <t>YUSEN LOGISTICS (INDIA) PVT LTD</t>
-  </si>
-  <si>
-    <t>Brainbees Solutions Private Limited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital Age Retail Private Limited </t>
-  </si>
-  <si>
-    <t>BusybeesLogistics Solutions Private Limited</t>
-  </si>
-  <si>
-    <t>Hands On Trades Private Limited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GROFERS INDIA PVT LTD </t>
-  </si>
-  <si>
-    <t>Hiveloop Logistics Private  Limited</t>
-  </si>
-  <si>
-    <t>Hiveloop Technology Private Limited.</t>
   </si>
 </sst>
 </file>
@@ -425,7 +297,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,6 +322,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -919,155 +799,158 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1605,40 +1488,40 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="29" style="4" customWidth="1"/>
+    <col min="6" max="6" width="29" style="5" customWidth="1"/>
     <col min="7" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:8">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1649,7 +1532,7 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
@@ -1658,7 +1541,7 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
@@ -1671,7 +1554,7 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>Sheet1!$C$3:$C$76</formula1>
+      <formula1>Sheet1!$C:$C</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
       <formula1>Sheet1!$I$3:$I$39</formula1>
@@ -1688,43 +1571,50 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:J77"/>
+  <dimension ref="B1:J77"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="62.5555555555556" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="2" spans="2:10">
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" s="2">
-        <v>77</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="J3" s="2">
         <v>31</v>
@@ -1732,16 +1622,14 @@
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="I4" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" s="2">
-        <v>76</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
@@ -1749,16 +1637,14 @@
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="I5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" s="2">
-        <v>75</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="J5" s="2">
         <v>3</v>
@@ -1766,14 +1652,12 @@
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2">
-        <v>74</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="I6" s="2" t="s">
         <v>26</v>
       </c>
@@ -1783,14 +1667,12 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2">
-        <v>73</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="I7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1800,14 +1682,12 @@
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="2">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2">
-        <v>72</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="I8" s="2" t="s">
         <v>29</v>
       </c>
@@ -1817,14 +1697,12 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="2">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2">
-        <v>71</v>
-      </c>
+      <c r="D9" s="2"/>
       <c r="I9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1834,14 +1712,12 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="2">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="2">
-        <v>70</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="I10" s="2" t="s">
         <v>32</v>
       </c>
@@ -1851,14 +1727,12 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="2">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="2">
-        <v>69</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="I11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1868,14 +1742,12 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="2">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="2">
-        <v>68</v>
-      </c>
+      <c r="D12" s="2"/>
       <c r="I12" s="2" t="s">
         <v>36</v>
       </c>
@@ -1885,14 +1757,12 @@
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="2">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="2">
-        <v>67</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="I13" s="2" t="s">
         <v>38</v>
       </c>
@@ -1902,14 +1772,12 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="2">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="2">
-        <v>66</v>
-      </c>
+      <c r="D14" s="2"/>
       <c r="I14" s="2" t="s">
         <v>40</v>
       </c>
@@ -1919,14 +1787,12 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="2">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="2">
-        <v>65</v>
-      </c>
+      <c r="D15" s="2"/>
       <c r="I15" s="2" t="s">
         <v>42</v>
       </c>
@@ -1936,14 +1802,12 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="2">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="2">
-        <v>64</v>
-      </c>
+      <c r="D16" s="2"/>
       <c r="I16" s="2" t="s">
         <v>44</v>
       </c>
@@ -1953,14 +1817,12 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="2">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="2">
-        <v>63</v>
-      </c>
+      <c r="D17" s="2"/>
       <c r="I17" s="2" t="s">
         <v>46</v>
       </c>
@@ -1968,786 +1830,430 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="2">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2" t="s">
+    <row r="18" spans="4:10">
+      <c r="D18" s="2"/>
+      <c r="I18" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D18" s="2">
-        <v>62</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="J18" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="2">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="2">
-        <v>61</v>
-      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J19" s="2">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="2">
-        <v>18</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="2">
-        <v>60</v>
-      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J20" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="2">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="2">
-        <v>59</v>
-      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J21" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="2">
-        <v>20</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="2">
-        <v>58</v>
-      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J22" s="2">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="2">
-        <v>21</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="2">
-        <v>57</v>
-      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J23" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="2">
-        <v>22</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="2">
-        <v>56</v>
-      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J24" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="2">
-        <v>23</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="2">
-        <v>55</v>
-      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J25" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="2">
-        <v>24</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="2">
-        <v>54</v>
-      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J26" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="2">
-        <v>25</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="2">
-        <v>53</v>
-      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="J27" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="2">
-        <v>26</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="2">
-        <v>52</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J28" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="2">
-        <v>27</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="2">
-        <v>51</v>
-      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="J29" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="2">
-        <v>28</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="2">
-        <v>50</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J30" s="2">
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="2">
-        <v>29</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="2">
-        <v>49</v>
-      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="J31" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="2">
-        <v>30</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="2">
-        <v>48</v>
-      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
       <c r="I32" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="J32" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="2">
-        <v>31</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="2">
-        <v>47</v>
-      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
       <c r="I33" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="J33" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="2">
-        <v>32</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="2">
-        <v>46</v>
-      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="J34" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="2">
-        <v>33</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="2">
-        <v>45</v>
-      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
       <c r="I35" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="J35" s="2">
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="2">
-        <v>34</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="2">
-        <v>43</v>
-      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
       <c r="I36" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="J36" s="2">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="2">
-        <v>35</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="2">
-        <v>42</v>
-      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
       <c r="I37" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="J37" s="2">
         <v>23</v>
       </c>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="2">
-        <v>36</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="2">
-        <v>40</v>
-      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
       <c r="I38" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="J38" s="2">
         <v>32</v>
       </c>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="2">
-        <v>37</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="2">
-        <v>39</v>
-      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="J39" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="2">
-        <v>38</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="2">
-        <v>38</v>
-      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="2">
-        <v>39</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="2">
-        <v>37</v>
-      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="2">
-        <v>40</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="2">
-        <v>36</v>
-      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="2">
-        <v>41</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" s="2">
-        <v>35</v>
-      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="2">
-        <v>42</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="2">
-        <v>34</v>
-      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="2">
-        <v>43</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="2">
-        <v>33</v>
-      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="2">
-        <v>44</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="2">
-        <v>32</v>
-      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="2">
-        <v>45</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="2">
-        <v>31</v>
-      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="2">
-        <v>46</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="2">
-        <v>30</v>
-      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="2">
-        <v>47</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" s="2">
-        <v>29</v>
-      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="2">
-        <v>48</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="2">
-        <v>28</v>
-      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="2">
-        <v>49</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D51" s="2">
-        <v>27</v>
-      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
     </row>
     <row r="52" spans="2:4">
-      <c r="B52" s="2">
-        <v>50</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="2">
-        <v>26</v>
-      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
     </row>
     <row r="53" spans="2:4">
-      <c r="B53" s="2">
-        <v>51</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="2">
-        <v>25</v>
-      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="2">
-        <v>52</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D54" s="2">
-        <v>24</v>
-      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="2">
-        <v>53</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D55" s="2">
-        <v>23</v>
-      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="2">
-        <v>54</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D56" s="2">
-        <v>22</v>
-      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="2">
-        <v>55</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D57" s="2">
-        <v>20</v>
-      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="2">
-        <v>56</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D58" s="2">
-        <v>19</v>
-      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
     </row>
     <row r="59" spans="2:4">
-      <c r="B59" s="2">
-        <v>57</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D59" s="2">
-        <v>18</v>
-      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="2">
-        <v>58</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D60" s="2">
-        <v>17</v>
-      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="2">
-        <v>59</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D61" s="2">
-        <v>16</v>
-      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
     </row>
     <row r="62" spans="2:4">
-      <c r="B62" s="2">
-        <v>60</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D62" s="2">
-        <v>15</v>
-      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
     </row>
     <row r="63" spans="2:4">
-      <c r="B63" s="2">
-        <v>61</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D63" s="2">
-        <v>14</v>
-      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
     </row>
     <row r="64" spans="2:4">
-      <c r="B64" s="2">
-        <v>62</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D64" s="2">
-        <v>13</v>
-      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" s="2">
-        <v>63</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D65" s="2">
-        <v>12</v>
-      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
     </row>
     <row r="66" spans="2:4">
-      <c r="B66" s="2">
-        <v>64</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D66" s="2">
-        <v>11</v>
-      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
     </row>
     <row r="67" spans="2:4">
-      <c r="B67" s="2">
-        <v>65</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D67" s="2">
-        <v>10</v>
-      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" s="2">
-        <v>66</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D68" s="2">
-        <v>9</v>
-      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" s="2">
-        <v>67</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D69" s="2">
-        <v>8</v>
-      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
     </row>
     <row r="70" spans="2:4">
-      <c r="B70" s="2">
-        <v>68</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D70" s="2">
-        <v>7</v>
-      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
     </row>
     <row r="71" spans="2:4">
-      <c r="B71" s="2">
-        <v>69</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D71" s="2">
-        <v>6</v>
-      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
     </row>
     <row r="72" spans="2:4">
-      <c r="B72" s="2">
-        <v>70</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D72" s="2">
-        <v>5</v>
-      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
     </row>
     <row r="73" spans="2:4">
-      <c r="B73" s="2">
-        <v>71</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D73" s="2">
-        <v>4</v>
-      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="2">
-        <v>72</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D74" s="2">
-        <v>3</v>
-      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="2">
-        <v>73</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D75" s="2">
-        <v>2</v>
-      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
     </row>
     <row r="76" spans="2:4">
-      <c r="B76" s="2">
-        <v>74</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D76" s="2">
-        <v>1</v>
-      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="2"/>

--- a/public/admin/cfis_formate.xlsx
+++ b/public/admin/cfis_formate.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cfis_formate" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>Client_Name</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Digital Age Retail Private Limited</t>
     </r>
     <r>
@@ -141,6 +147,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Mehler Engineered Products</t>
     </r>
     <r>
@@ -220,6 +232,9 @@
     <t>HIMACHAL PRADESH</t>
   </si>
   <si>
+    <t>Unique Punch Systems Pvt Ltd</t>
+  </si>
+  <si>
     <t>JAMMU &amp; KASHMIR</t>
   </si>
   <si>
@@ -297,7 +312,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +331,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.1"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -799,137 +820,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -938,19 +959,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1488,40 +1512,40 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="C1" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="29" style="5" customWidth="1"/>
+    <col min="6" max="6" width="29" style="6" customWidth="1"/>
     <col min="7" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:8">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1532,7 +1556,7 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
@@ -1541,7 +1565,7 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
@@ -1573,8 +1597,8 @@
   <sheetPr/>
   <dimension ref="B1:J77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1830,10 +1854,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="4:10">
+    <row r="18" ht="15" spans="2:10">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J18" s="2">
         <v>8</v>
@@ -1844,7 +1874,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J19" s="2">
         <v>33</v>
@@ -1855,7 +1885,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J20" s="2">
         <v>9</v>
@@ -1866,7 +1896,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J21" s="2">
         <v>10</v>
@@ -1877,7 +1907,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J22" s="2">
         <v>27</v>
@@ -1888,7 +1918,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J23" s="2">
         <v>11</v>
@@ -1899,7 +1929,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J24" s="2">
         <v>12</v>
@@ -1910,7 +1940,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J25" s="2">
         <v>13</v>
@@ -1921,7 +1951,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J26" s="2">
         <v>14</v>
@@ -1932,7 +1962,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J27" s="2">
         <v>15</v>
@@ -1943,7 +1973,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J28" s="2">
         <v>16</v>
@@ -1954,7 +1984,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J29" s="2">
         <v>17</v>
@@ -1965,7 +1995,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J30" s="2">
         <v>26</v>
@@ -1976,7 +2006,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J31" s="2">
         <v>18</v>
@@ -1987,7 +2017,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="I32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J32" s="2">
         <v>19</v>
@@ -1998,7 +2028,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="I33" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J33" s="2">
         <v>20</v>
@@ -2009,7 +2039,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J34" s="2">
         <v>21</v>
@@ -2020,7 +2050,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="I35" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J35" s="2">
         <v>36</v>
@@ -2031,7 +2061,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="I36" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J36" s="2">
         <v>22</v>
@@ -2042,7 +2072,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="I37" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J37" s="2">
         <v>23</v>
@@ -2053,7 +2083,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="I38" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J38" s="2">
         <v>32</v>
@@ -2064,7 +2094,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J39" s="2">
         <v>24</v>
